--- a/docs/UD_Modifiers.xlsx
+++ b/docs/UD_Modifiers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13272"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modifiers &amp; Presets" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="421">
   <si>
     <t>Name</t>
   </si>
@@ -1081,9 +1081,6 @@
   </si>
   <si>
     <t>Liquid Collector</t>
-  </si>
-  <si>
-    <t>The device has the ability to collect your secretions and produce bottles of potions</t>
   </si>
   <si>
     <t>zad_DeviousBelt</t>
@@ -1533,6 +1530,36 @@
   </si>
   <si>
     <t>ITEM+ ALCO</t>
+  </si>
+  <si>
+    <t>Rebellious</t>
+  </si>
+  <si>
+    <t>REB</t>
+  </si>
+  <si>
+    <t>CancelManipulation</t>
+  </si>
+  <si>
+    <t>ModPreset1_Rebellious</t>
+  </si>
+  <si>
+    <t>4,20.0,0.0,0,,,,1,S</t>
+  </si>
+  <si>
+    <t>2,20.0,0.0,0,,,,1,S</t>
+  </si>
+  <si>
+    <t>1,50.0,0.0,0,,,,1,S</t>
+  </si>
+  <si>
+    <t>This device resists manipulation and can locks itself for real</t>
+  </si>
+  <si>
+    <t>This device has the ability to collect your secretions and produce bottles of potions</t>
+  </si>
+  <si>
+    <t>Cancel Manipulation</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,10 +1862,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,7 +1883,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,11 +1892,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2152,13 +2185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF54"/>
+  <dimension ref="B2:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="P36" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z55" sqref="Z55"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2192,10 +2225,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
@@ -2203,12 +2236,12 @@
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="40" t="s">
@@ -2233,96 +2266,96 @@
       <c r="AB2" s="41"/>
       <c r="AC2" s="41"/>
       <c r="AD2" s="42"/>
-      <c r="AE2" s="38" t="s">
+      <c r="AE2" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="37"/>
+      <c r="X3" s="44"/>
       <c r="Y3" s="46" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="46"/>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37" t="s">
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
     </row>
     <row r="4" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="39"/>
-      <c r="L4" s="37"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2680,7 @@
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>55</v>
@@ -2769,7 +2802,7 @@
         <v>72</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>81</v>
@@ -2887,13 +2920,13 @@
         <v>24</v>
       </c>
       <c r="O13" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="Q13" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>37</v>
@@ -3687,7 +3720,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>87</v>
@@ -3723,10 +3756,10 @@
         <v>0.2</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
@@ -3873,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>87</v>
@@ -3894,7 +3927,7 @@
         <v>204</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>37</v>
@@ -4775,13 +4808,13 @@
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>298</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>297</v>
@@ -5001,13 +5034,13 @@
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>30</v>
@@ -5031,13 +5064,13 @@
         <v>167</v>
       </c>
       <c r="O49" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="P49" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="P49" s="17" t="s">
+      <c r="Q49" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>37</v>
@@ -5063,13 +5096,13 @@
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>115</v>
@@ -5077,7 +5110,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K50" s="23" t="s">
         <v>87</v>
@@ -5086,16 +5119,16 @@
         <v>24</v>
       </c>
       <c r="O50" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="P50" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q50" s="17" t="s">
+      <c r="R50" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>37</v>
@@ -5121,13 +5154,13 @@
     </row>
     <row r="51" spans="2:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>298</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>297</v>
@@ -5141,13 +5174,13 @@
         <v>87</v>
       </c>
       <c r="L51" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="W51" s="5" t="s">
         <v>37</v>
@@ -5173,13 +5206,13 @@
     </row>
     <row r="52" spans="2:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>298</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>297</v>
@@ -5193,13 +5226,13 @@
         <v>88</v>
       </c>
       <c r="L52" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="M52" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="R52" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>37</v>
@@ -5225,13 +5258,13 @@
     </row>
     <row r="53" spans="2:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>298</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>297</v>
@@ -5242,16 +5275,16 @@
         <v>296</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L53" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="W53" s="5" t="s">
         <v>37</v>
@@ -5280,7 +5313,7 @@
         <v>344</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>343</v>
@@ -5304,19 +5337,19 @@
         <v>24</v>
       </c>
       <c r="M54" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O54" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="O54" s="17" t="s">
+      <c r="P54" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q54" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="P54" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q54" s="17" t="s">
+      <c r="S54" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>37</v>
@@ -5338,11 +5371,78 @@
       </c>
       <c r="AC54" s="5" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B5:AF48"/>
   <mergeCells count="27">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K2:AD2"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="AF2:AF4"/>
     <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="D2:F2"/>
@@ -5359,17 +5459,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K2:AD2"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5378,26 +5467,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="16.5546875" style="27" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="3" max="16" width="16.5546875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>342</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>28</v>
@@ -5406,37 +5495,40 @@
         <v>100</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="M2" s="26" t="s">
+      <c r="O2" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>186</v>
       </c>
@@ -5447,16 +5539,17 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>322</v>
       </c>
@@ -5470,13 +5563,14 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
-      <c r="M4" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="N4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="34" t="s">
+        <v>406</v>
+      </c>
       <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>27</v>
       </c>
@@ -5499,8 +5593,9 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>323</v>
       </c>
@@ -5517,8 +5612,9 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>280</v>
       </c>
@@ -5537,8 +5633,9 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>161</v>
       </c>
@@ -5548,19 +5645,20 @@
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="K8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>394</v>
+      </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>69</v>
       </c>
@@ -5572,93 +5670,97 @@
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="N9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31" t="s">
+        <v>395</v>
+      </c>
       <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>324</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="J10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31" t="s">
+        <v>383</v>
+      </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N10" s="30"/>
+      <c r="O10" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>325</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="J11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31" t="s">
+        <v>384</v>
+      </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
         <v>326</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="J12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31" t="s">
+        <v>385</v>
+      </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N12" s="30"/>
+      <c r="O12" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>327</v>
       </c>
@@ -5675,8 +5777,9 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>328</v>
       </c>
@@ -5693,8 +5796,9 @@
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>134</v>
       </c>
@@ -5713,8 +5817,9 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>329</v>
       </c>
@@ -5724,19 +5829,20 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>330</v>
       </c>
@@ -5753,13 +5859,14 @@
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>301</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -5767,16 +5874,17 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>171</v>
       </c>
@@ -5789,16 +5897,17 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="K19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31" t="s">
+        <v>398</v>
+      </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>46</v>
       </c>
@@ -5813,26 +5922,29 @@
         <v>251</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="H20" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="J20" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="30"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="N20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31" t="s">
+        <v>399</v>
+      </c>
       <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>331</v>
       </c>
@@ -5849,8 +5961,9 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
         <v>144</v>
       </c>
@@ -5861,40 +5974,42 @@
       <c r="G22" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
-    </row>
-    <row r="24" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="P22" s="30"/>
+    </row>
+    <row r="24" spans="2:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
